--- a/inputs/bd_Panama.xlsx
+++ b/inputs/bd_Panama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eo\Documents\999_Repositorios\PIBNowcast\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD2717B-E157-4B6B-9649-6619FE031A3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92777AE0-0204-4F2A-9A3F-8111FEF82254}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -797,11 +797,11 @@
   <dimension ref="A1:H297"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B268" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B269" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AR1" sqref="AR1"/>
       <selection pane="topRight" activeCell="AR1" sqref="AR1"/>
       <selection pane="bottomLeft" activeCell="AR1" sqref="AR1"/>
-      <selection pane="bottomRight" activeCell="E295" sqref="E295"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -27358,9 +27358,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27567,19 +27570,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F297275B-DD5F-43B4-84E1-102EE208859A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0446D5E-CBBF-4BF3-A0B0-2EE2C0EE312C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -27604,9 +27603,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0446D5E-CBBF-4BF3-A0B0-2EE2C0EE312C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F297275B-DD5F-43B4-84E1-102EE208859A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inputs/bd_Panama.xlsx
+++ b/inputs/bd_Panama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eo\Documents\999_Repositorios\PIBNowcast\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D5B6BB-4ED8-4027-A1C9-925E1B683341}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892FD682-1029-4B50-840E-8A7BE60CFCD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mensual" sheetId="1" r:id="rId1"/>
@@ -517,12 +517,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H297"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B269" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B265" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AR1" sqref="AR1"/>
       <selection pane="topRight" activeCell="AR1" sqref="AR1"/>
       <selection pane="bottomLeft" activeCell="AR1" sqref="AR1"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G295" sqref="G295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -7197,8 +7197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871EF900-B6F1-4166-9097-2291E4C47BA5}">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B4" sqref="B4:E13"/>
       <selection pane="topRight" activeCell="B4" sqref="B4:E13"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4:E13"/>
@@ -7258,7 +7258,7 @@
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="11">
-        <f>D5/(B5/B4)</f>
+        <f t="shared" ref="D4:D47" si="0">D5/(B5/B4)</f>
         <v>2697.862641515122</v>
       </c>
     </row>
@@ -7271,7 +7271,7 @@
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="11">
-        <f>D6/(B6/B5)</f>
+        <f t="shared" si="0"/>
         <v>2808.9246187538497</v>
       </c>
     </row>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="11">
-        <f>D7/(B7/B6)</f>
+        <f t="shared" si="0"/>
         <v>2847.8767342824526</v>
       </c>
     </row>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="11">
-        <f>D8/(B8/B7)</f>
+        <f t="shared" si="0"/>
         <v>2977.1820341553889</v>
       </c>
     </row>
@@ -7310,7 +7310,7 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="11">
-        <f>D9/(B9/B8)</f>
+        <f t="shared" si="0"/>
         <v>2823.7651876360578</v>
       </c>
     </row>
@@ -7323,7 +7323,7 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="11">
-        <f>D10/(B10/B9)</f>
+        <f t="shared" si="0"/>
         <v>2984.9567985726176</v>
       </c>
     </row>
@@ -7336,7 +7336,7 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="11">
-        <f>D11/(B11/B10)</f>
+        <f t="shared" si="0"/>
         <v>3052.3231248955422</v>
       </c>
     </row>
@@ -7349,7 +7349,7 @@
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="11">
-        <f>D12/(B12/B11)</f>
+        <f t="shared" si="0"/>
         <v>3202.9211284194644</v>
       </c>
     </row>
@@ -7362,7 +7362,7 @@
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="11">
-        <f>D13/(B13/B12)</f>
+        <f t="shared" si="0"/>
         <v>3080.4942007461254</v>
       </c>
     </row>
@@ -7375,7 +7375,7 @@
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="11">
-        <f>D14/(B14/B13)</f>
+        <f t="shared" si="0"/>
         <v>3160.0012752636862</v>
       </c>
     </row>
@@ -7388,7 +7388,7 @@
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="11">
-        <f>D15/(B15/B14)</f>
+        <f t="shared" si="0"/>
         <v>3273.635336200191</v>
       </c>
     </row>
@@ -7401,7 +7401,7 @@
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="11">
-        <f>D16/(B16/B15)</f>
+        <f t="shared" si="0"/>
         <v>3435.5492517082216</v>
       </c>
     </row>
@@ -7414,7 +7414,7 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="11">
-        <f>D17/(B17/B16)</f>
+        <f t="shared" si="0"/>
         <v>3264.1028098102861</v>
       </c>
     </row>
@@ -7427,7 +7427,7 @@
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="11">
-        <f>D18/(B18/B17)</f>
+        <f t="shared" si="0"/>
         <v>3334.6388850188814</v>
       </c>
     </row>
@@ -7440,7 +7440,7 @@
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="11">
-        <f>D19/(B19/B18)</f>
+        <f t="shared" si="0"/>
         <v>3412.1011620173981</v>
       </c>
     </row>
@@ -7453,7 +7453,7 @@
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="11">
-        <f>D20/(B20/B19)</f>
+        <f t="shared" si="0"/>
         <v>3445.9488195377758</v>
       </c>
     </row>
@@ -7466,7 +7466,7 @@
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="11">
-        <f>D21/(B21/B20)</f>
+        <f t="shared" si="0"/>
         <v>3290.1530253484843</v>
       </c>
     </row>
@@ -7479,7 +7479,7 @@
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="11">
-        <f>D22/(B22/B21)</f>
+        <f t="shared" si="0"/>
         <v>3420.3876484468615</v>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="11">
-        <f>D23/(B23/B22)</f>
+        <f t="shared" si="0"/>
         <v>3505.4979502035135</v>
       </c>
     </row>
@@ -7505,7 +7505,7 @@
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="11">
-        <f>D24/(B24/B23)</f>
+        <f t="shared" si="0"/>
         <v>3606.3794664542979</v>
       </c>
     </row>
@@ -7518,7 +7518,7 @@
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="11">
-        <f>D25/(B25/B24)</f>
+        <f t="shared" si="0"/>
         <v>3324.822943941751</v>
       </c>
     </row>
@@ -7531,7 +7531,7 @@
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="11">
-        <f>D26/(B26/B25)</f>
+        <f t="shared" si="0"/>
         <v>3503.6160105535791</v>
       </c>
     </row>
@@ -7544,7 +7544,7 @@
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="11">
-        <f>D27/(B27/B26)</f>
+        <f t="shared" si="0"/>
         <v>3491.6849348784999</v>
       </c>
     </row>
@@ -7557,7 +7557,7 @@
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="11">
-        <f>D28/(B28/B27)</f>
+        <f t="shared" si="0"/>
         <v>3581.665289383619</v>
       </c>
     </row>
@@ -7570,7 +7570,7 @@
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="11">
-        <f>D29/(B29/B28)</f>
+        <f t="shared" si="0"/>
         <v>3394.6619384688011</v>
       </c>
     </row>
@@ -7583,7 +7583,7 @@
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="11">
-        <f>D30/(B30/B29)</f>
+        <f t="shared" si="0"/>
         <v>3563.0827375015233</v>
       </c>
     </row>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="11">
-        <f>D31/(B31/B30)</f>
+        <f t="shared" si="0"/>
         <v>3544.9674090383182</v>
       </c>
     </row>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="11">
-        <f>D32/(B32/B31)</f>
+        <f t="shared" si="0"/>
         <v>3708.829126186572</v>
       </c>
     </row>
@@ -7622,7 +7622,7 @@
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="11">
-        <f>D33/(B33/B32)</f>
+        <f t="shared" si="0"/>
         <v>3565.8465456593199</v>
       </c>
     </row>
@@ -7635,7 +7635,7 @@
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="11">
-        <f>D34/(B34/B33)</f>
+        <f t="shared" si="0"/>
         <v>3568.8844095915802</v>
       </c>
     </row>
@@ -7648,7 +7648,7 @@
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="11">
-        <f>D35/(B35/B34)</f>
+        <f t="shared" si="0"/>
         <v>3683.645028353304</v>
       </c>
     </row>
@@ -7661,7 +7661,7 @@
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="11">
-        <f>D36/(B36/B35)</f>
+        <f t="shared" si="0"/>
         <v>3990.8857771958487</v>
       </c>
     </row>
@@ -7674,7 +7674,7 @@
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="11">
-        <f>D37/(B37/B36)</f>
+        <f t="shared" si="0"/>
         <v>3795.1007002776196</v>
       </c>
     </row>
@@ -7687,7 +7687,7 @@
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="11">
-        <f>D38/(B38/B37)</f>
+        <f t="shared" si="0"/>
         <v>3911.5913688226374</v>
       </c>
     </row>
@@ -7700,7 +7700,7 @@
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="11">
-        <f>D39/(B39/B38)</f>
+        <f t="shared" si="0"/>
         <v>4022.2725355719172</v>
       </c>
     </row>
@@ -7713,7 +7713,7 @@
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="11">
-        <f>D40/(B40/B39)</f>
+        <f t="shared" si="0"/>
         <v>4194.2955692797132</v>
       </c>
     </row>
@@ -7726,7 +7726,7 @@
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="11">
-        <f>D41/(B41/B40)</f>
+        <f t="shared" si="0"/>
         <v>4086.3914784077174</v>
       </c>
     </row>
@@ -7739,7 +7739,7 @@
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="11">
-        <f>D42/(B42/B41)</f>
+        <f t="shared" si="0"/>
         <v>4214.0509177982694</v>
       </c>
     </row>
@@ -7752,7 +7752,7 @@
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="11">
-        <f>D43/(B43/B42)</f>
+        <f t="shared" si="0"/>
         <v>4316.7579420795564</v>
       </c>
     </row>
@@ -7765,7 +7765,7 @@
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="11">
-        <f>D44/(B44/B43)</f>
+        <f t="shared" si="0"/>
         <v>4451.1015545066448</v>
       </c>
     </row>
@@ -7778,7 +7778,7 @@
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="11">
-        <f>D45/(B45/B44)</f>
+        <f t="shared" si="0"/>
         <v>4397.3238981537806</v>
       </c>
     </row>
@@ -7791,7 +7791,7 @@
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="11">
-        <f>D46/(B46/B45)</f>
+        <f t="shared" si="0"/>
         <v>4536.3873944242914</v>
       </c>
     </row>
@@ -7804,7 +7804,7 @@
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="11">
-        <f>D47/(B47/B46)</f>
+        <f t="shared" si="0"/>
         <v>4718.4949326785318</v>
       </c>
     </row>
@@ -7817,7 +7817,7 @@
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="11">
-        <f>D48/(B48/B47)</f>
+        <f t="shared" si="0"/>
         <v>4871.6361767664257</v>
       </c>
     </row>
@@ -7832,7 +7832,7 @@
         <v>4958.9849999999997</v>
       </c>
       <c r="D48" s="11">
-        <f t="shared" ref="D48:D99" si="0">C48</f>
+        <f t="shared" ref="D48:D99" si="1">C48</f>
         <v>4958.9849999999997</v>
       </c>
     </row>
@@ -7847,7 +7847,7 @@
         <v>5139.47</v>
       </c>
       <c r="D49" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5139.47</v>
       </c>
     </row>
@@ -7862,7 +7862,7 @@
         <v>5446.9210000000003</v>
       </c>
       <c r="D50" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5446.9210000000003</v>
       </c>
     </row>
@@ -7877,7 +7877,7 @@
         <v>5750.6069999999991</v>
       </c>
       <c r="D51" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5750.6069999999991</v>
       </c>
     </row>
@@ -7892,7 +7892,7 @@
         <v>5572.241</v>
       </c>
       <c r="D52" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5572.241</v>
       </c>
     </row>
@@ -7907,7 +7907,7 @@
         <v>5836.8689999999997</v>
       </c>
       <c r="D53" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5836.8689999999997</v>
       </c>
     </row>
@@ -7922,7 +7922,7 @@
         <v>5958.2690000000002</v>
       </c>
       <c r="D54" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5958.2690000000002</v>
       </c>
     </row>
@@ -7937,7 +7937,7 @@
         <v>6027.4619999999995</v>
       </c>
       <c r="D55" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6027.4619999999995</v>
       </c>
     </row>
@@ -7952,7 +7952,7 @@
         <v>5793.7989999999991</v>
       </c>
       <c r="D56" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5793.7989999999991</v>
       </c>
     </row>
@@ -7967,7 +7967,7 @@
         <v>5878.2529999999997</v>
       </c>
       <c r="D57" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5878.2529999999997</v>
       </c>
     </row>
@@ -7982,7 +7982,7 @@
         <v>5966.5740000000005</v>
       </c>
       <c r="D58" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5966.5740000000005</v>
       </c>
     </row>
@@ -7997,7 +7997,7 @@
         <v>6037.101999999999</v>
       </c>
       <c r="D59" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6037.101999999999</v>
       </c>
     </row>
@@ -8012,7 +8012,7 @@
         <v>6070.808</v>
       </c>
       <c r="D60" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6070.808</v>
       </c>
     </row>
@@ -8027,7 +8027,7 @@
         <v>6140.4150000000009</v>
       </c>
       <c r="D61" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6140.4150000000009</v>
       </c>
     </row>
@@ -8042,7 +8042,7 @@
         <v>6189.8389999999999</v>
       </c>
       <c r="D62" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6189.8389999999999</v>
       </c>
     </row>
@@ -8057,7 +8057,7 @@
         <v>6644.0560000000005</v>
       </c>
       <c r="D63" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6644.0560000000005</v>
       </c>
     </row>
@@ -8072,7 +8072,7 @@
         <v>6702.3240000000005</v>
       </c>
       <c r="D64" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6702.3240000000005</v>
       </c>
     </row>
@@ -8087,7 +8087,7 @@
         <v>6860.3610000000008</v>
       </c>
       <c r="D65" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6860.3610000000008</v>
       </c>
     </row>
@@ -8102,7 +8102,7 @@
         <v>6996.4639999999999</v>
       </c>
       <c r="D66" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6996.4639999999999</v>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
         <v>7344.1739999999991</v>
       </c>
       <c r="D67" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7344.1739999999991</v>
       </c>
     </row>
@@ -8132,7 +8132,7 @@
         <v>7490.2030000000013</v>
       </c>
       <c r="D68" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7490.2030000000013</v>
       </c>
     </row>
@@ -8147,7 +8147,7 @@
         <v>7552.558</v>
       </c>
       <c r="D69" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7552.558</v>
       </c>
     </row>
@@ -8162,7 +8162,7 @@
         <v>7644.2629999999999</v>
       </c>
       <c r="D70" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7644.2629999999999</v>
       </c>
     </row>
@@ -8177,7 +8177,7 @@
         <v>7942.5650000000005</v>
       </c>
       <c r="D71" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7942.5650000000005</v>
       </c>
     </row>
@@ -8192,7 +8192,7 @@
         <v>8008.616</v>
       </c>
       <c r="D72" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8008.616</v>
       </c>
     </row>
@@ -8207,7 +8207,7 @@
         <v>8103.6450000000004</v>
       </c>
       <c r="D73" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8103.6450000000004</v>
       </c>
     </row>
@@ -8222,7 +8222,7 @@
         <v>8272.2180000000008</v>
       </c>
       <c r="D74" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8272.2180000000008</v>
       </c>
     </row>
@@ -8235,7 +8235,7 @@
         <v>8384.9470000000001</v>
       </c>
       <c r="D75" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8384.9470000000001</v>
       </c>
     </row>
@@ -8248,7 +8248,7 @@
         <v>8363.5589999999993</v>
       </c>
       <c r="D76" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8363.5589999999993</v>
       </c>
     </row>
@@ -8261,7 +8261,7 @@
         <v>8488.2510000000002</v>
       </c>
       <c r="D77" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8488.2510000000002</v>
       </c>
     </row>
@@ -8274,7 +8274,7 @@
         <v>8693.6990000000005</v>
       </c>
       <c r="D78" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8693.6990000000005</v>
       </c>
     </row>
@@ -8287,7 +8287,7 @@
         <v>8897.155999999999</v>
       </c>
       <c r="D79" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8897.155999999999</v>
       </c>
     </row>
@@ -8300,7 +8300,7 @@
         <v>8866.2900000000009</v>
       </c>
       <c r="D80" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8866.2900000000009</v>
       </c>
     </row>
@@ -8313,7 +8313,7 @@
         <v>8979.9359999999997</v>
       </c>
       <c r="D81" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8979.9359999999997</v>
       </c>
     </row>
@@ -8326,7 +8326,7 @@
         <v>9184.8449999999993</v>
       </c>
       <c r="D82" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9184.8449999999993</v>
       </c>
     </row>
@@ -8339,7 +8339,7 @@
         <v>9377.2189999999991</v>
       </c>
       <c r="D83" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9377.2189999999991</v>
       </c>
     </row>
@@ -8352,7 +8352,7 @@
         <v>9304.4539999999997</v>
       </c>
       <c r="D84" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9304.4539999999997</v>
       </c>
     </row>
@@ -8365,7 +8365,7 @@
         <v>9463.6569999999992</v>
       </c>
       <c r="D85" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9463.6569999999992</v>
       </c>
     </row>
@@ -8378,7 +8378,7 @@
         <v>9589.8610000000008</v>
       </c>
       <c r="D86" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9589.8610000000008</v>
       </c>
     </row>
@@ -8391,7 +8391,7 @@
         <v>9885.4779999999992</v>
       </c>
       <c r="D87" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9885.4779999999992</v>
       </c>
     </row>
@@ -8404,7 +8404,7 @@
         <v>9904.991</v>
       </c>
       <c r="D88" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9904.991</v>
       </c>
     </row>
@@ -8417,7 +8417,7 @@
         <v>9983.634</v>
       </c>
       <c r="D89" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9983.634</v>
       </c>
     </row>
@@ -8430,7 +8430,7 @@
         <v>10134.849</v>
       </c>
       <c r="D90" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10134.849</v>
       </c>
     </row>
@@ -8443,7 +8443,7 @@
         <v>10383.107</v>
       </c>
       <c r="D91" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10383.107</v>
       </c>
     </row>
@@ -8456,7 +8456,7 @@
         <v>10319.093999999999</v>
       </c>
       <c r="D92" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10319.093999999999</v>
       </c>
     </row>
@@ -8469,7 +8469,7 @@
         <v>10310.834999999999</v>
       </c>
       <c r="D93" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10310.834999999999</v>
       </c>
     </row>
@@ -8482,7 +8482,7 @@
         <v>10488.555000000002</v>
       </c>
       <c r="D94" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10488.555000000002</v>
       </c>
     </row>
@@ -8495,7 +8495,7 @@
         <v>10814.537000000002</v>
       </c>
       <c r="D95" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10814.537000000002</v>
       </c>
     </row>
@@ -8508,7 +8508,7 @@
         <v>10649.64918231603</v>
       </c>
       <c r="D96" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10649.64918231603</v>
       </c>
     </row>
@@ -8521,7 +8521,7 @@
         <v>10628.11378510533</v>
       </c>
       <c r="D97" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10628.11378510533</v>
       </c>
     </row>
@@ -8534,7 +8534,7 @@
         <v>10841.068501657979</v>
       </c>
       <c r="D98" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10841.068501657979</v>
       </c>
     </row>
@@ -8547,7 +8547,7 @@
         <v>11221.451143296596</v>
       </c>
       <c r="D99" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11221.451143296596</v>
       </c>
     </row>
@@ -8650,9 +8650,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8859,19 +8862,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F297275B-DD5F-43B4-84E1-102EE208859A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0446D5E-CBBF-4BF3-A0B0-2EE2C0EE312C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8896,9 +8895,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0446D5E-CBBF-4BF3-A0B0-2EE2C0EE312C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F297275B-DD5F-43B4-84E1-102EE208859A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inputs/bd_Panama.xlsx
+++ b/inputs/bd_Panama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eo\Documents\999_Repositorios\PIBNowcast\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892FD682-1029-4B50-840E-8A7BE60CFCD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D5B6BB-4ED8-4027-A1C9-925E1B683341}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mensual" sheetId="1" r:id="rId1"/>
@@ -517,12 +517,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H297"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B265" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B269" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AR1" sqref="AR1"/>
       <selection pane="topRight" activeCell="AR1" sqref="AR1"/>
       <selection pane="bottomLeft" activeCell="AR1" sqref="AR1"/>
-      <selection pane="bottomRight" activeCell="G295" sqref="G295"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -7197,8 +7197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871EF900-B6F1-4166-9097-2291E4C47BA5}">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B4" sqref="B4:E13"/>
       <selection pane="topRight" activeCell="B4" sqref="B4:E13"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4:E13"/>
@@ -7258,7 +7258,7 @@
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="11">
-        <f t="shared" ref="D4:D47" si="0">D5/(B5/B4)</f>
+        <f>D5/(B5/B4)</f>
         <v>2697.862641515122</v>
       </c>
     </row>
@@ -7271,7 +7271,7 @@
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="11">
-        <f t="shared" si="0"/>
+        <f>D6/(B6/B5)</f>
         <v>2808.9246187538497</v>
       </c>
     </row>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="11">
-        <f t="shared" si="0"/>
+        <f>D7/(B7/B6)</f>
         <v>2847.8767342824526</v>
       </c>
     </row>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="11">
-        <f t="shared" si="0"/>
+        <f>D8/(B8/B7)</f>
         <v>2977.1820341553889</v>
       </c>
     </row>
@@ -7310,7 +7310,7 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="11">
-        <f t="shared" si="0"/>
+        <f>D9/(B9/B8)</f>
         <v>2823.7651876360578</v>
       </c>
     </row>
@@ -7323,7 +7323,7 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="11">
-        <f t="shared" si="0"/>
+        <f>D10/(B10/B9)</f>
         <v>2984.9567985726176</v>
       </c>
     </row>
@@ -7336,7 +7336,7 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="11">
-        <f t="shared" si="0"/>
+        <f>D11/(B11/B10)</f>
         <v>3052.3231248955422</v>
       </c>
     </row>
@@ -7349,7 +7349,7 @@
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="11">
-        <f t="shared" si="0"/>
+        <f>D12/(B12/B11)</f>
         <v>3202.9211284194644</v>
       </c>
     </row>
@@ -7362,7 +7362,7 @@
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="11">
-        <f t="shared" si="0"/>
+        <f>D13/(B13/B12)</f>
         <v>3080.4942007461254</v>
       </c>
     </row>
@@ -7375,7 +7375,7 @@
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="11">
-        <f t="shared" si="0"/>
+        <f>D14/(B14/B13)</f>
         <v>3160.0012752636862</v>
       </c>
     </row>
@@ -7388,7 +7388,7 @@
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="11">
-        <f t="shared" si="0"/>
+        <f>D15/(B15/B14)</f>
         <v>3273.635336200191</v>
       </c>
     </row>
@@ -7401,7 +7401,7 @@
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="11">
-        <f t="shared" si="0"/>
+        <f>D16/(B16/B15)</f>
         <v>3435.5492517082216</v>
       </c>
     </row>
@@ -7414,7 +7414,7 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="11">
-        <f t="shared" si="0"/>
+        <f>D17/(B17/B16)</f>
         <v>3264.1028098102861</v>
       </c>
     </row>
@@ -7427,7 +7427,7 @@
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="11">
-        <f t="shared" si="0"/>
+        <f>D18/(B18/B17)</f>
         <v>3334.6388850188814</v>
       </c>
     </row>
@@ -7440,7 +7440,7 @@
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="11">
-        <f t="shared" si="0"/>
+        <f>D19/(B19/B18)</f>
         <v>3412.1011620173981</v>
       </c>
     </row>
@@ -7453,7 +7453,7 @@
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="11">
-        <f t="shared" si="0"/>
+        <f>D20/(B20/B19)</f>
         <v>3445.9488195377758</v>
       </c>
     </row>
@@ -7466,7 +7466,7 @@
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="11">
-        <f t="shared" si="0"/>
+        <f>D21/(B21/B20)</f>
         <v>3290.1530253484843</v>
       </c>
     </row>
@@ -7479,7 +7479,7 @@
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="11">
-        <f t="shared" si="0"/>
+        <f>D22/(B22/B21)</f>
         <v>3420.3876484468615</v>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="11">
-        <f t="shared" si="0"/>
+        <f>D23/(B23/B22)</f>
         <v>3505.4979502035135</v>
       </c>
     </row>
@@ -7505,7 +7505,7 @@
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="11">
-        <f t="shared" si="0"/>
+        <f>D24/(B24/B23)</f>
         <v>3606.3794664542979</v>
       </c>
     </row>
@@ -7518,7 +7518,7 @@
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="11">
-        <f t="shared" si="0"/>
+        <f>D25/(B25/B24)</f>
         <v>3324.822943941751</v>
       </c>
     </row>
@@ -7531,7 +7531,7 @@
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="11">
-        <f t="shared" si="0"/>
+        <f>D26/(B26/B25)</f>
         <v>3503.6160105535791</v>
       </c>
     </row>
@@ -7544,7 +7544,7 @@
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="11">
-        <f t="shared" si="0"/>
+        <f>D27/(B27/B26)</f>
         <v>3491.6849348784999</v>
       </c>
     </row>
@@ -7557,7 +7557,7 @@
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="11">
-        <f t="shared" si="0"/>
+        <f>D28/(B28/B27)</f>
         <v>3581.665289383619</v>
       </c>
     </row>
@@ -7570,7 +7570,7 @@
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="11">
-        <f t="shared" si="0"/>
+        <f>D29/(B29/B28)</f>
         <v>3394.6619384688011</v>
       </c>
     </row>
@@ -7583,7 +7583,7 @@
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="11">
-        <f t="shared" si="0"/>
+        <f>D30/(B30/B29)</f>
         <v>3563.0827375015233</v>
       </c>
     </row>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="11">
-        <f t="shared" si="0"/>
+        <f>D31/(B31/B30)</f>
         <v>3544.9674090383182</v>
       </c>
     </row>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="11">
-        <f t="shared" si="0"/>
+        <f>D32/(B32/B31)</f>
         <v>3708.829126186572</v>
       </c>
     </row>
@@ -7622,7 +7622,7 @@
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="11">
-        <f t="shared" si="0"/>
+        <f>D33/(B33/B32)</f>
         <v>3565.8465456593199</v>
       </c>
     </row>
@@ -7635,7 +7635,7 @@
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="11">
-        <f t="shared" si="0"/>
+        <f>D34/(B34/B33)</f>
         <v>3568.8844095915802</v>
       </c>
     </row>
@@ -7648,7 +7648,7 @@
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="11">
-        <f t="shared" si="0"/>
+        <f>D35/(B35/B34)</f>
         <v>3683.645028353304</v>
       </c>
     </row>
@@ -7661,7 +7661,7 @@
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="11">
-        <f t="shared" si="0"/>
+        <f>D36/(B36/B35)</f>
         <v>3990.8857771958487</v>
       </c>
     </row>
@@ -7674,7 +7674,7 @@
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="11">
-        <f t="shared" si="0"/>
+        <f>D37/(B37/B36)</f>
         <v>3795.1007002776196</v>
       </c>
     </row>
@@ -7687,7 +7687,7 @@
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="11">
-        <f t="shared" si="0"/>
+        <f>D38/(B38/B37)</f>
         <v>3911.5913688226374</v>
       </c>
     </row>
@@ -7700,7 +7700,7 @@
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="11">
-        <f t="shared" si="0"/>
+        <f>D39/(B39/B38)</f>
         <v>4022.2725355719172</v>
       </c>
     </row>
@@ -7713,7 +7713,7 @@
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="11">
-        <f t="shared" si="0"/>
+        <f>D40/(B40/B39)</f>
         <v>4194.2955692797132</v>
       </c>
     </row>
@@ -7726,7 +7726,7 @@
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="11">
-        <f t="shared" si="0"/>
+        <f>D41/(B41/B40)</f>
         <v>4086.3914784077174</v>
       </c>
     </row>
@@ -7739,7 +7739,7 @@
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="11">
-        <f t="shared" si="0"/>
+        <f>D42/(B42/B41)</f>
         <v>4214.0509177982694</v>
       </c>
     </row>
@@ -7752,7 +7752,7 @@
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="11">
-        <f t="shared" si="0"/>
+        <f>D43/(B43/B42)</f>
         <v>4316.7579420795564</v>
       </c>
     </row>
@@ -7765,7 +7765,7 @@
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="11">
-        <f t="shared" si="0"/>
+        <f>D44/(B44/B43)</f>
         <v>4451.1015545066448</v>
       </c>
     </row>
@@ -7778,7 +7778,7 @@
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="11">
-        <f t="shared" si="0"/>
+        <f>D45/(B45/B44)</f>
         <v>4397.3238981537806</v>
       </c>
     </row>
@@ -7791,7 +7791,7 @@
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="11">
-        <f t="shared" si="0"/>
+        <f>D46/(B46/B45)</f>
         <v>4536.3873944242914</v>
       </c>
     </row>
@@ -7804,7 +7804,7 @@
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="11">
-        <f t="shared" si="0"/>
+        <f>D47/(B47/B46)</f>
         <v>4718.4949326785318</v>
       </c>
     </row>
@@ -7817,7 +7817,7 @@
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="11">
-        <f t="shared" si="0"/>
+        <f>D48/(B48/B47)</f>
         <v>4871.6361767664257</v>
       </c>
     </row>
@@ -7832,7 +7832,7 @@
         <v>4958.9849999999997</v>
       </c>
       <c r="D48" s="11">
-        <f t="shared" ref="D48:D99" si="1">C48</f>
+        <f t="shared" ref="D48:D99" si="0">C48</f>
         <v>4958.9849999999997</v>
       </c>
     </row>
@@ -7847,7 +7847,7 @@
         <v>5139.47</v>
       </c>
       <c r="D49" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5139.47</v>
       </c>
     </row>
@@ -7862,7 +7862,7 @@
         <v>5446.9210000000003</v>
       </c>
       <c r="D50" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5446.9210000000003</v>
       </c>
     </row>
@@ -7877,7 +7877,7 @@
         <v>5750.6069999999991</v>
       </c>
       <c r="D51" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5750.6069999999991</v>
       </c>
     </row>
@@ -7892,7 +7892,7 @@
         <v>5572.241</v>
       </c>
       <c r="D52" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5572.241</v>
       </c>
     </row>
@@ -7907,7 +7907,7 @@
         <v>5836.8689999999997</v>
       </c>
       <c r="D53" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5836.8689999999997</v>
       </c>
     </row>
@@ -7922,7 +7922,7 @@
         <v>5958.2690000000002</v>
       </c>
       <c r="D54" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5958.2690000000002</v>
       </c>
     </row>
@@ -7937,7 +7937,7 @@
         <v>6027.4619999999995</v>
       </c>
       <c r="D55" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6027.4619999999995</v>
       </c>
     </row>
@@ -7952,7 +7952,7 @@
         <v>5793.7989999999991</v>
       </c>
       <c r="D56" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5793.7989999999991</v>
       </c>
     </row>
@@ -7967,7 +7967,7 @@
         <v>5878.2529999999997</v>
       </c>
       <c r="D57" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5878.2529999999997</v>
       </c>
     </row>
@@ -7982,7 +7982,7 @@
         <v>5966.5740000000005</v>
       </c>
       <c r="D58" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5966.5740000000005</v>
       </c>
     </row>
@@ -7997,7 +7997,7 @@
         <v>6037.101999999999</v>
       </c>
       <c r="D59" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6037.101999999999</v>
       </c>
     </row>
@@ -8012,7 +8012,7 @@
         <v>6070.808</v>
       </c>
       <c r="D60" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6070.808</v>
       </c>
     </row>
@@ -8027,7 +8027,7 @@
         <v>6140.4150000000009</v>
       </c>
       <c r="D61" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6140.4150000000009</v>
       </c>
     </row>
@@ -8042,7 +8042,7 @@
         <v>6189.8389999999999</v>
       </c>
       <c r="D62" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6189.8389999999999</v>
       </c>
     </row>
@@ -8057,7 +8057,7 @@
         <v>6644.0560000000005</v>
       </c>
       <c r="D63" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6644.0560000000005</v>
       </c>
     </row>
@@ -8072,7 +8072,7 @@
         <v>6702.3240000000005</v>
       </c>
       <c r="D64" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6702.3240000000005</v>
       </c>
     </row>
@@ -8087,7 +8087,7 @@
         <v>6860.3610000000008</v>
       </c>
       <c r="D65" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6860.3610000000008</v>
       </c>
     </row>
@@ -8102,7 +8102,7 @@
         <v>6996.4639999999999</v>
       </c>
       <c r="D66" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6996.4639999999999</v>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
         <v>7344.1739999999991</v>
       </c>
       <c r="D67" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7344.1739999999991</v>
       </c>
     </row>
@@ -8132,7 +8132,7 @@
         <v>7490.2030000000013</v>
       </c>
       <c r="D68" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7490.2030000000013</v>
       </c>
     </row>
@@ -8147,7 +8147,7 @@
         <v>7552.558</v>
       </c>
       <c r="D69" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7552.558</v>
       </c>
     </row>
@@ -8162,7 +8162,7 @@
         <v>7644.2629999999999</v>
       </c>
       <c r="D70" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7644.2629999999999</v>
       </c>
     </row>
@@ -8177,7 +8177,7 @@
         <v>7942.5650000000005</v>
       </c>
       <c r="D71" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7942.5650000000005</v>
       </c>
     </row>
@@ -8192,7 +8192,7 @@
         <v>8008.616</v>
       </c>
       <c r="D72" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8008.616</v>
       </c>
     </row>
@@ -8207,7 +8207,7 @@
         <v>8103.6450000000004</v>
       </c>
       <c r="D73" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8103.6450000000004</v>
       </c>
     </row>
@@ -8222,7 +8222,7 @@
         <v>8272.2180000000008</v>
       </c>
       <c r="D74" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8272.2180000000008</v>
       </c>
     </row>
@@ -8235,7 +8235,7 @@
         <v>8384.9470000000001</v>
       </c>
       <c r="D75" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8384.9470000000001</v>
       </c>
     </row>
@@ -8248,7 +8248,7 @@
         <v>8363.5589999999993</v>
       </c>
       <c r="D76" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8363.5589999999993</v>
       </c>
     </row>
@@ -8261,7 +8261,7 @@
         <v>8488.2510000000002</v>
       </c>
       <c r="D77" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8488.2510000000002</v>
       </c>
     </row>
@@ -8274,7 +8274,7 @@
         <v>8693.6990000000005</v>
       </c>
       <c r="D78" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8693.6990000000005</v>
       </c>
     </row>
@@ -8287,7 +8287,7 @@
         <v>8897.155999999999</v>
       </c>
       <c r="D79" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8897.155999999999</v>
       </c>
     </row>
@@ -8300,7 +8300,7 @@
         <v>8866.2900000000009</v>
       </c>
       <c r="D80" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8866.2900000000009</v>
       </c>
     </row>
@@ -8313,7 +8313,7 @@
         <v>8979.9359999999997</v>
       </c>
       <c r="D81" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8979.9359999999997</v>
       </c>
     </row>
@@ -8326,7 +8326,7 @@
         <v>9184.8449999999993</v>
       </c>
       <c r="D82" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9184.8449999999993</v>
       </c>
     </row>
@@ -8339,7 +8339,7 @@
         <v>9377.2189999999991</v>
       </c>
       <c r="D83" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9377.2189999999991</v>
       </c>
     </row>
@@ -8352,7 +8352,7 @@
         <v>9304.4539999999997</v>
       </c>
       <c r="D84" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9304.4539999999997</v>
       </c>
     </row>
@@ -8365,7 +8365,7 @@
         <v>9463.6569999999992</v>
       </c>
       <c r="D85" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9463.6569999999992</v>
       </c>
     </row>
@@ -8378,7 +8378,7 @@
         <v>9589.8610000000008</v>
       </c>
       <c r="D86" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9589.8610000000008</v>
       </c>
     </row>
@@ -8391,7 +8391,7 @@
         <v>9885.4779999999992</v>
       </c>
       <c r="D87" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9885.4779999999992</v>
       </c>
     </row>
@@ -8404,7 +8404,7 @@
         <v>9904.991</v>
       </c>
       <c r="D88" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9904.991</v>
       </c>
     </row>
@@ -8417,7 +8417,7 @@
         <v>9983.634</v>
       </c>
       <c r="D89" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9983.634</v>
       </c>
     </row>
@@ -8430,7 +8430,7 @@
         <v>10134.849</v>
       </c>
       <c r="D90" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10134.849</v>
       </c>
     </row>
@@ -8443,7 +8443,7 @@
         <v>10383.107</v>
       </c>
       <c r="D91" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10383.107</v>
       </c>
     </row>
@@ -8456,7 +8456,7 @@
         <v>10319.093999999999</v>
       </c>
       <c r="D92" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10319.093999999999</v>
       </c>
     </row>
@@ -8469,7 +8469,7 @@
         <v>10310.834999999999</v>
       </c>
       <c r="D93" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10310.834999999999</v>
       </c>
     </row>
@@ -8482,7 +8482,7 @@
         <v>10488.555000000002</v>
       </c>
       <c r="D94" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10488.555000000002</v>
       </c>
     </row>
@@ -8495,7 +8495,7 @@
         <v>10814.537000000002</v>
       </c>
       <c r="D95" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10814.537000000002</v>
       </c>
     </row>
@@ -8508,7 +8508,7 @@
         <v>10649.64918231603</v>
       </c>
       <c r="D96" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10649.64918231603</v>
       </c>
     </row>
@@ -8521,7 +8521,7 @@
         <v>10628.11378510533</v>
       </c>
       <c r="D97" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10628.11378510533</v>
       </c>
     </row>
@@ -8534,7 +8534,7 @@
         <v>10841.068501657979</v>
       </c>
       <c r="D98" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10841.068501657979</v>
       </c>
     </row>
@@ -8547,7 +8547,7 @@
         <v>11221.451143296596</v>
       </c>
       <c r="D99" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11221.451143296596</v>
       </c>
     </row>
@@ -8650,12 +8650,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8862,15 +8859,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0446D5E-CBBF-4BF3-A0B0-2EE2C0EE312C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F297275B-DD5F-43B4-84E1-102EE208859A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8895,10 +8896,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F297275B-DD5F-43B4-84E1-102EE208859A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0446D5E-CBBF-4BF3-A0B0-2EE2C0EE312C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>